--- a/data/trans_bre/P2403-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P2403-Estudios-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2403-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P2403-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-95,26%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-71,9%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-0,58; 0,0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-2,54; -0,91</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-3,1; -0,5</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -65,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,6; -11,49</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,08</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-61,66%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,88%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-0,94; -0,18</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-3,16; -1,07</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-1,13; 0,71</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,68; -38,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,44; 37,84</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,52%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,68%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,7%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-0,86; 0,99</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-2,0; 0,86</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>-3,21; 1,08</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,89; 142,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,9; 52,33</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-82,96%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-70,37%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,56%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,59; -0,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,59; -1,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,54; -0,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -19,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,32; -53,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,0; -2,45</t>
         </is>
       </c>
     </row>
